--- a/bom.xlsx
+++ b/bom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Desktop\Synced\projects\pcm4222evm_support\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\repos\electronics-adc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B3EA62-0913-477F-B5BE-D4E41B26730D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDE3859-83B6-4935-A07C-E2E4A500C43F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46D4D327-F289-40D3-BB42-66A8A21F1E9C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="109">
   <si>
     <t>10u</t>
   </si>
@@ -179,201 +179,12 @@
     <t>Capacitor_THT:CP_Radial_D5.0mm_P2.00mm</t>
   </si>
   <si>
-    <t>P1176-ND</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
-    <t>445-6984-1-ND</t>
-  </si>
-  <si>
-    <t>47u</t>
-  </si>
-  <si>
-    <t>Capacitor_THT:CP_Radial_D6.3mm_P2.50mm</t>
-  </si>
-  <si>
-    <t>493-10493-1-ND</t>
-  </si>
-  <si>
-    <t>22n</t>
-  </si>
-  <si>
-    <t>Capacitor_THT:C_Rect_L7.2mm_W7.2mm_P5.00mm_FKS2_FKP2_MKS2_MKP2</t>
-  </si>
-  <si>
-    <t>1928-1227-ND</t>
-  </si>
-  <si>
-    <t>47p</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>1276-1037-1-ND</t>
-  </si>
-  <si>
-    <t>1000u</t>
-  </si>
-  <si>
-    <t>Capacitor_THT:CP_Radial_D16.0mm_P7.50mm</t>
-  </si>
-  <si>
-    <t>399-6557-ND</t>
-  </si>
-  <si>
-    <t>1u</t>
-  </si>
-  <si>
-    <t>1276-1942-1-ND</t>
-  </si>
-  <si>
-    <t>399-7845-1-ND</t>
-  </si>
-  <si>
-    <t>BAV99</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD:SOT-23</t>
-  </si>
-  <si>
-    <t>1727-4311-1-ND</t>
-  </si>
-  <si>
-    <t>1N5246B</t>
-  </si>
-  <si>
-    <t>Diode_THT:D_DO-35_SOD27_P7.62mm_Horizontal</t>
-  </si>
-  <si>
-    <t>1N5246B-ND</t>
-  </si>
-  <si>
     <t>Conn_Coaxial</t>
   </si>
   <si>
-    <t>uld_osc:CONN_1-1337543-0</t>
-  </si>
-  <si>
-    <t>A97553-ND</t>
-  </si>
-  <si>
-    <t>BC337</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_THT:TO-92_Inline</t>
-  </si>
-  <si>
-    <t>BC33716TAFSCT-ND</t>
-  </si>
-  <si>
-    <t>RR08P510DCT-ND</t>
-  </si>
-  <si>
-    <t>RR08Q18DCT-ND</t>
-  </si>
-  <si>
-    <t>3.48k</t>
-  </si>
-  <si>
-    <t>RG16P3.48KBCT-ND</t>
-  </si>
-  <si>
-    <t>2.2k</t>
-  </si>
-  <si>
-    <t>5.6k</t>
-  </si>
-  <si>
-    <t>RR08P5.6KDCT-ND</t>
-  </si>
-  <si>
-    <t>8.2k</t>
-  </si>
-  <si>
-    <t>RR08P8.2KDCT-ND</t>
-  </si>
-  <si>
-    <t>RR08P715DCT-ND</t>
-  </si>
-  <si>
-    <t>9.1k</t>
-  </si>
-  <si>
-    <t>RR08P9.1KDCT-ND</t>
-  </si>
-  <si>
-    <t>3.6k</t>
-  </si>
-  <si>
-    <t>RG16P3.6KBCT-ND</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
-    <t>RR08P10.0KDCT-ND</t>
-  </si>
-  <si>
-    <t>311-2897-1-ND</t>
-  </si>
-  <si>
-    <t>NSL-32</t>
-  </si>
-  <si>
-    <t>OptoDevice:Luna_NSL-32</t>
-  </si>
-  <si>
-    <t>NSL-32SR3-ND</t>
-  </si>
-  <si>
-    <t>OPA1611</t>
-  </si>
-  <si>
-    <t>Package_SO:SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>296-47811-1-ND</t>
-  </si>
-  <si>
-    <t>TL431DBZ</t>
-  </si>
-  <si>
-    <t>296-17332-1-ND</t>
-  </si>
-  <si>
-    <t>TL081</t>
-  </si>
-  <si>
-    <t>296-TL081CPSRCT-ND</t>
-  </si>
-  <si>
-    <t>TL082</t>
-  </si>
-  <si>
-    <t>296-15005-1-ND</t>
-  </si>
-  <si>
-    <t>uld_osc:67YR200LF</t>
-  </si>
-  <si>
-    <t>987-1503-ND</t>
-  </si>
-  <si>
-    <t>50k</t>
-  </si>
-  <si>
-    <t>uld_osc:P160KN2</t>
-  </si>
-  <si>
-    <t>987-1714-ND</t>
-  </si>
-  <si>
-    <t>Oscillator</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -395,15 +206,6 @@
     <t>IEC320-C14 Power entry module</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Fuse 5x20</t>
-  </si>
-  <si>
-    <t>486-1332-ND</t>
-  </si>
-  <si>
     <t>K1</t>
   </si>
   <si>
@@ -416,9 +218,6 @@
     <t>M1</t>
   </si>
   <si>
-    <t>Board mounts</t>
-  </si>
-  <si>
     <t>RPC1449-ND</t>
   </si>
   <si>
@@ -476,84 +275,12 @@
     <t>T1</t>
   </si>
   <si>
-    <t>C1, C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5-C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9, C10</t>
-  </si>
-  <si>
-    <t>C11, C12</t>
-  </si>
-  <si>
-    <t>C13-C20</t>
-  </si>
-  <si>
     <t>D1, D2</t>
   </si>
   <si>
-    <t>D3, D4</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R5, R10, R12, R14</t>
-  </si>
-  <si>
-    <t>R11, R13, R15</t>
-  </si>
-  <si>
-    <t>R16, R17</t>
-  </si>
-  <si>
-    <t>U2, U6</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>VR1</t>
-  </si>
-  <si>
-    <t>VR2</t>
-  </si>
-  <si>
     <t>DF02MDI-ND</t>
   </si>
   <si>
@@ -621,6 +348,18 @@
   </si>
   <si>
     <t>HS1, HS2</t>
+  </si>
+  <si>
+    <t>HS104-1-ND</t>
+  </si>
+  <si>
+    <t>F1, F2</t>
+  </si>
+  <si>
+    <t>200 mA slow blow 5x20 mm</t>
+  </si>
+  <si>
+    <t>Board mounts for PCM4222EVM</t>
   </si>
 </sst>
 </file>
@@ -987,15 +726,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D5B1C0-52A9-48A4-B193-825CA226E3EB}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.28515625" bestFit="1" customWidth="1"/>
@@ -1020,7 +759,7 @@
         <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1028,7 +767,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1048,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1068,7 +807,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -1088,7 +827,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -1108,7 +847,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1128,7 +867,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1148,7 +887,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -1168,7 +907,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1188,7 +927,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="C10">
         <v>330</v>
@@ -1208,7 +947,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -1228,7 +967,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -1248,7 +987,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -1268,7 +1007,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1288,7 +1027,7 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1308,7 +1047,7 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
@@ -1328,16 +1067,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1348,16 +1087,16 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -1368,7 +1107,7 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -1377,7 +1116,7 @@
         <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1388,16 +1127,16 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1408,16 +1147,16 @@
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -1428,16 +1167,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="C22">
         <v>330</v>
       </c>
       <c r="D22" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1448,7 +1187,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -1468,16 +1207,16 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -1488,16 +1227,16 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1508,90 +1247,82 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="1"/>
       <c r="F28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1599,626 +1330,35 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40">
-        <v>510</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46">
-        <v>715</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50">
-        <v>6.8</v>
-      </c>
-      <c r="D50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" t="s">
-        <v>171</v>
-      </c>
-      <c r="C56">
-        <v>200</v>
-      </c>
-      <c r="D56" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" t="s">
-        <v>108</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" t="s">
-        <v>115</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" t="s">
-        <v>117</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>114</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" t="s">
-        <v>128</v>
-      </c>
-      <c r="F62">
         <v>4</v>
       </c>
     </row>
